--- a/BOM_doorbellv2_2026-01-17.xlsx
+++ b/BOM_doorbellv2_2026-01-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{34DAB452-F955-46A5-8281-D2FCB4C6B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1D360DEF-3163-4368-894A-C735E821E204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{089B2CCC-76FF-401A-B05C-FA1AA291D86D}"/>
+    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15720" xr2:uid="{089B2CCC-76FF-401A-B05C-FA1AA291D86D}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_doorbellv2_2026-01-17" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -88,18 +88,6 @@
     <t>470UF 10V FLAT</t>
   </si>
   <si>
-    <t>14.93$</t>
-  </si>
-  <si>
-    <t>1.36$</t>
-  </si>
-  <si>
-    <t>1.25$</t>
-  </si>
-  <si>
-    <t>1.46$</t>
-  </si>
-  <si>
     <t>1.03$</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>https://a.aliexpress.com/_EjwHFpm</t>
   </si>
   <si>
-    <t>https://a.aliexpress.com/_Ezm8cI8</t>
-  </si>
-  <si>
     <t>https://a.aliexpress.com/_EHTl74c</t>
   </si>
   <si>
@@ -148,18 +133,12 @@
     <t>9.79$</t>
   </si>
   <si>
-    <t>https://a.aliexpress.com/_EyY3e0o</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
     <t>The links are in swiss francs! The Price here is dollar</t>
   </si>
   <si>
-    <t>10.33$</t>
-  </si>
-  <si>
     <t>I can provide it</t>
   </si>
   <si>
@@ -172,7 +151,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>46.25$</t>
+    <t>4.93$</t>
+  </si>
+  <si>
+    <t>5.14$</t>
+  </si>
+  <si>
+    <t>21.75$</t>
+  </si>
+  <si>
+    <t>34.56</t>
   </si>
 </sst>
 </file>
@@ -665,10 +653,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,7 +1037,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,11 +1114,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,11 +1134,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,10 +1158,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,10 +1181,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,16 +1215,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,16 +1232,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,16 +1249,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1291,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,26 +1282,26 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
